--- a/Daten/Bauprojekte/00_Bauprojekte_neu_bewilligt_Original.xlsx
+++ b/Daten/Bauprojekte/00_Bauprojekte_neu_bewilligt_Original.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10211"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonnygrafico/Documents/Jonnny/CAS-MAZ/MAZ-CAS-DJ18-19_Abschlussarbeit/Daten/Bauprojekte/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{020C01E0-47A7-BD49-8FE0-E42AEF8AA19B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80A411F8-00BA-E049-8B93-A20903192DE0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22340" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23680" windowHeight="12320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Neu bewilligt" sheetId="3" r:id="rId1"/>
-    <sheet name="Im Bau" sheetId="5" r:id="rId2"/>
-    <sheet name="Inhalt" sheetId="1" r:id="rId3"/>
-    <sheet name="Erläuterungen" sheetId="6" r:id="rId4"/>
-    <sheet name="Fertigerstellt" sheetId="2" r:id="rId5"/>
-    <sheet name="Bewilligt" sheetId="4" r:id="rId6"/>
+    <sheet name="Inhalt" sheetId="1" r:id="rId2"/>
+    <sheet name="Erläuterungen zur Auswertung" sheetId="6" r:id="rId3"/>
+    <sheet name="Fertigerstellt" sheetId="2" r:id="rId4"/>
+    <sheet name="Bewilligt" sheetId="4" r:id="rId5"/>
+    <sheet name="Im Bau" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="30">
   <si>
     <t/>
   </si>
@@ -48,7 +48,7 @@
     <t>Erstellt am</t>
   </si>
   <si>
-    <t>23.01.2018</t>
+    <t>01.02.2019</t>
   </si>
   <si>
     <t>Inhalt</t>
@@ -295,15 +295,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
+      <xdr:colOff>285750</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>350520</xdr:colOff>
+      <xdr:colOff>302895</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -318,7 +318,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="333375" y="180976"/>
+          <a:off x="285750" y="190500"/>
           <a:ext cx="5884545" cy="695324"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -508,9 +508,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="135" zoomScaleNormal="135" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -1126,6 +1126,56 @@
         <v>1048697</v>
       </c>
       <c r="P20" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="7">
+        <v>2018</v>
+      </c>
+      <c r="B21" s="8">
+        <v>215</v>
+      </c>
+      <c r="C21" s="8">
+        <v>25</v>
+      </c>
+      <c r="D21" s="8">
+        <v>86</v>
+      </c>
+      <c r="E21" s="8">
+        <v>25</v>
+      </c>
+      <c r="F21" s="8">
+        <v>79</v>
+      </c>
+      <c r="G21" s="8">
+        <v>2926239</v>
+      </c>
+      <c r="H21" s="8">
+        <v>930867</v>
+      </c>
+      <c r="I21" s="8">
+        <v>454728</v>
+      </c>
+      <c r="J21" s="8">
+        <v>666001</v>
+      </c>
+      <c r="K21" s="8">
+        <v>874643</v>
+      </c>
+      <c r="L21" s="8">
+        <v>2161219</v>
+      </c>
+      <c r="M21" s="8">
+        <v>1219332</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" s="8">
+        <v>941887</v>
+      </c>
+      <c r="P21" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1141,641 +1191,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:P20"/>
-  <sheetViews>
-    <sheetView zoomScale="131" zoomScaleNormal="131" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.6640625" customWidth="1"/>
-    <col min="3" max="16" width="10.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-    </row>
-    <row r="10" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="N10" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="7">
-        <v>2008</v>
-      </c>
-      <c r="B11" s="8">
-        <v>110</v>
-      </c>
-      <c r="C11" s="8">
-        <v>29</v>
-      </c>
-      <c r="D11" s="8">
-        <v>28</v>
-      </c>
-      <c r="E11" s="8">
-        <v>23</v>
-      </c>
-      <c r="F11" s="8">
-        <v>30</v>
-      </c>
-      <c r="G11" s="8">
-        <v>3943891</v>
-      </c>
-      <c r="H11" s="8">
-        <v>1909389</v>
-      </c>
-      <c r="I11" s="8">
-        <v>417292</v>
-      </c>
-      <c r="J11" s="8">
-        <v>938757</v>
-      </c>
-      <c r="K11" s="8">
-        <v>678453</v>
-      </c>
-      <c r="L11" s="8">
-        <v>4124342</v>
-      </c>
-      <c r="M11" s="8">
-        <v>2853327</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O11" s="8">
-        <v>1271015</v>
-      </c>
-      <c r="P11" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="7">
-        <v>2009</v>
-      </c>
-      <c r="B12" s="8">
-        <v>106</v>
-      </c>
-      <c r="C12" s="8">
-        <v>25</v>
-      </c>
-      <c r="D12" s="8">
-        <v>31</v>
-      </c>
-      <c r="E12" s="8">
-        <v>25</v>
-      </c>
-      <c r="F12" s="8">
-        <v>25</v>
-      </c>
-      <c r="G12" s="8">
-        <v>5539764</v>
-      </c>
-      <c r="H12" s="8">
-        <v>2128477</v>
-      </c>
-      <c r="I12" s="8">
-        <v>363247</v>
-      </c>
-      <c r="J12" s="8">
-        <v>2216943</v>
-      </c>
-      <c r="K12" s="8">
-        <v>831097</v>
-      </c>
-      <c r="L12" s="8">
-        <v>5580259</v>
-      </c>
-      <c r="M12" s="8">
-        <v>2929807</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O12" s="8">
-        <v>2650452</v>
-      </c>
-      <c r="P12" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="7">
-        <v>2010</v>
-      </c>
-      <c r="B13" s="8">
-        <v>106</v>
-      </c>
-      <c r="C13" s="8">
-        <v>25</v>
-      </c>
-      <c r="D13" s="8">
-        <v>31</v>
-      </c>
-      <c r="E13" s="8">
-        <v>21</v>
-      </c>
-      <c r="F13" s="8">
-        <v>29</v>
-      </c>
-      <c r="G13" s="8">
-        <v>6600861</v>
-      </c>
-      <c r="H13" s="8">
-        <v>2580388</v>
-      </c>
-      <c r="I13" s="8">
-        <v>511766</v>
-      </c>
-      <c r="J13" s="8">
-        <v>2506486</v>
-      </c>
-      <c r="K13" s="8">
-        <v>1002221</v>
-      </c>
-      <c r="L13" s="8">
-        <v>6289239</v>
-      </c>
-      <c r="M13" s="8">
-        <v>3469382</v>
-      </c>
-      <c r="N13" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O13" s="8">
-        <v>2819857</v>
-      </c>
-      <c r="P13" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="7">
-        <v>2011</v>
-      </c>
-      <c r="B14" s="8">
-        <v>113</v>
-      </c>
-      <c r="C14" s="8">
-        <v>28</v>
-      </c>
-      <c r="D14" s="8">
-        <v>33</v>
-      </c>
-      <c r="E14" s="8">
-        <v>22</v>
-      </c>
-      <c r="F14" s="8">
-        <v>30</v>
-      </c>
-      <c r="G14" s="8">
-        <v>6031190</v>
-      </c>
-      <c r="H14" s="8">
-        <v>2145180</v>
-      </c>
-      <c r="I14" s="8">
-        <v>535430</v>
-      </c>
-      <c r="J14" s="8">
-        <v>2481579</v>
-      </c>
-      <c r="K14" s="8">
-        <v>869001</v>
-      </c>
-      <c r="L14" s="8">
-        <v>5646116</v>
-      </c>
-      <c r="M14" s="8">
-        <v>3024016</v>
-      </c>
-      <c r="N14" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O14" s="8">
-        <v>2622100</v>
-      </c>
-      <c r="P14" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="7">
-        <v>2012</v>
-      </c>
-      <c r="B15" s="8">
-        <v>108</v>
-      </c>
-      <c r="C15" s="8">
-        <v>27</v>
-      </c>
-      <c r="D15" s="8">
-        <v>33</v>
-      </c>
-      <c r="E15" s="8">
-        <v>20</v>
-      </c>
-      <c r="F15" s="8">
-        <v>28</v>
-      </c>
-      <c r="G15" s="8">
-        <v>5277020</v>
-      </c>
-      <c r="H15" s="8">
-        <v>1997692</v>
-      </c>
-      <c r="I15" s="8">
-        <v>527759</v>
-      </c>
-      <c r="J15" s="8">
-        <v>2098194</v>
-      </c>
-      <c r="K15" s="8">
-        <v>653375</v>
-      </c>
-      <c r="L15" s="8">
-        <v>4963511</v>
-      </c>
-      <c r="M15" s="8">
-        <v>2739109</v>
-      </c>
-      <c r="N15" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O15" s="8">
-        <v>2224402</v>
-      </c>
-      <c r="P15" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="7">
-        <v>2013</v>
-      </c>
-      <c r="B16" s="8">
-        <v>109</v>
-      </c>
-      <c r="C16" s="8">
-        <v>28</v>
-      </c>
-      <c r="D16" s="8">
-        <v>30</v>
-      </c>
-      <c r="E16" s="8">
-        <v>22</v>
-      </c>
-      <c r="F16" s="8">
-        <v>29</v>
-      </c>
-      <c r="G16" s="8">
-        <v>6451551</v>
-      </c>
-      <c r="H16" s="8">
-        <v>2499811</v>
-      </c>
-      <c r="I16" s="8">
-        <v>541902</v>
-      </c>
-      <c r="J16" s="8">
-        <v>2254465</v>
-      </c>
-      <c r="K16" s="8">
-        <v>1155373</v>
-      </c>
-      <c r="L16" s="8">
-        <v>5637556</v>
-      </c>
-      <c r="M16" s="8">
-        <v>3484411</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O16" s="8">
-        <v>2153145</v>
-      </c>
-      <c r="P16" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="7">
-        <v>2014</v>
-      </c>
-      <c r="B17" s="8">
-        <v>106</v>
-      </c>
-      <c r="C17" s="8">
-        <v>28</v>
-      </c>
-      <c r="D17" s="8">
-        <v>30</v>
-      </c>
-      <c r="E17" s="8">
-        <v>18</v>
-      </c>
-      <c r="F17" s="8">
-        <v>30</v>
-      </c>
-      <c r="G17" s="8">
-        <v>7268512</v>
-      </c>
-      <c r="H17" s="8">
-        <v>2792521</v>
-      </c>
-      <c r="I17" s="8">
-        <v>471165</v>
-      </c>
-      <c r="J17" s="8">
-        <v>2344397</v>
-      </c>
-      <c r="K17" s="8">
-        <v>1660429</v>
-      </c>
-      <c r="L17" s="8">
-        <v>6657645</v>
-      </c>
-      <c r="M17" s="8">
-        <v>4533524</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O17" s="8">
-        <v>2124121</v>
-      </c>
-      <c r="P17" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="7">
-        <v>2015</v>
-      </c>
-      <c r="B18" s="8">
-        <v>106</v>
-      </c>
-      <c r="C18" s="8">
-        <v>28</v>
-      </c>
-      <c r="D18" s="8">
-        <v>33</v>
-      </c>
-      <c r="E18" s="8">
-        <v>17</v>
-      </c>
-      <c r="F18" s="8">
-        <v>28</v>
-      </c>
-      <c r="G18" s="8">
-        <v>6496121</v>
-      </c>
-      <c r="H18" s="8">
-        <v>2501008</v>
-      </c>
-      <c r="I18" s="8">
-        <v>665223</v>
-      </c>
-      <c r="J18" s="8">
-        <v>2192560</v>
-      </c>
-      <c r="K18" s="8">
-        <v>1137330</v>
-      </c>
-      <c r="L18" s="8">
-        <v>5821763</v>
-      </c>
-      <c r="M18" s="8">
-        <v>3705164</v>
-      </c>
-      <c r="N18" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O18" s="8">
-        <v>2116599</v>
-      </c>
-      <c r="P18" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="7">
-        <v>2016</v>
-      </c>
-      <c r="B19" s="8">
-        <v>104</v>
-      </c>
-      <c r="C19" s="8">
-        <v>29</v>
-      </c>
-      <c r="D19" s="8">
-        <v>30</v>
-      </c>
-      <c r="E19" s="8">
-        <v>16</v>
-      </c>
-      <c r="F19" s="8">
-        <v>29</v>
-      </c>
-      <c r="G19" s="8">
-        <v>6862720</v>
-      </c>
-      <c r="H19" s="8">
-        <v>2628874</v>
-      </c>
-      <c r="I19" s="8">
-        <v>471349</v>
-      </c>
-      <c r="J19" s="8">
-        <v>2299377</v>
-      </c>
-      <c r="K19" s="8">
-        <v>1463120</v>
-      </c>
-      <c r="L19" s="8">
-        <v>5692680</v>
-      </c>
-      <c r="M19" s="8">
-        <v>3424393</v>
-      </c>
-      <c r="N19" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O19" s="8">
-        <v>2268287</v>
-      </c>
-      <c r="P19" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="7">
-        <v>2017</v>
-      </c>
-      <c r="B20" s="8">
-        <v>106</v>
-      </c>
-      <c r="C20" s="8">
-        <v>26</v>
-      </c>
-      <c r="D20" s="8">
-        <v>30</v>
-      </c>
-      <c r="E20" s="8">
-        <v>19</v>
-      </c>
-      <c r="F20" s="8">
-        <v>31</v>
-      </c>
-      <c r="G20" s="8">
-        <v>7142467</v>
-      </c>
-      <c r="H20" s="8">
-        <v>2744443</v>
-      </c>
-      <c r="I20" s="8">
-        <v>413530</v>
-      </c>
-      <c r="J20" s="8">
-        <v>2215230</v>
-      </c>
-      <c r="K20" s="8">
-        <v>1769264</v>
-      </c>
-      <c r="L20" s="8">
-        <v>5871161</v>
-      </c>
-      <c r="M20" s="8">
-        <v>3618540</v>
-      </c>
-      <c r="N20" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O20" s="8">
-        <v>2252621</v>
-      </c>
-      <c r="P20" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="L9:P9"/>
-  </mergeCells>
-  <pageMargins left="0.71" right="0.71" top="0.98" bottom="0.59" header="0.4" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A6:F20"/>
   <sheetViews>
@@ -1918,7 +1333,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1935,11 +1350,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P20"/>
+  <dimension ref="A1:P21"/>
   <sheetViews>
-    <sheetView zoomScale="122" zoomScaleNormal="122" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
@@ -2555,6 +1970,740 @@
         <v>697412</v>
       </c>
       <c r="P20" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="7">
+        <v>2018</v>
+      </c>
+      <c r="B21" s="8">
+        <v>106</v>
+      </c>
+      <c r="C21" s="8">
+        <v>23</v>
+      </c>
+      <c r="D21" s="8">
+        <v>31</v>
+      </c>
+      <c r="E21" s="8">
+        <v>21</v>
+      </c>
+      <c r="F21" s="8">
+        <v>31</v>
+      </c>
+      <c r="G21" s="8">
+        <v>3144785</v>
+      </c>
+      <c r="H21" s="8">
+        <v>1366489</v>
+      </c>
+      <c r="I21" s="8">
+        <v>361561</v>
+      </c>
+      <c r="J21" s="8">
+        <v>414272</v>
+      </c>
+      <c r="K21" s="8">
+        <v>1002463</v>
+      </c>
+      <c r="L21" s="8">
+        <v>22777235</v>
+      </c>
+      <c r="M21" s="8">
+        <v>1800536</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" s="8">
+        <v>587651</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="L9:P9"/>
+  </mergeCells>
+  <pageMargins left="0.71" right="0.71" top="0.98" bottom="0.59" header="0.4" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:P21"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="16" width="10.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="11"/>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="11"/>
+    </row>
+    <row r="10" spans="1:16" ht="24" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="7">
+        <v>2008</v>
+      </c>
+      <c r="B11" s="8">
+        <v>98</v>
+      </c>
+      <c r="C11" s="8">
+        <v>22</v>
+      </c>
+      <c r="D11" s="8">
+        <v>29</v>
+      </c>
+      <c r="E11" s="8">
+        <v>22</v>
+      </c>
+      <c r="F11" s="8">
+        <v>25</v>
+      </c>
+      <c r="G11" s="8">
+        <v>3443894</v>
+      </c>
+      <c r="H11" s="8">
+        <v>1043485</v>
+      </c>
+      <c r="I11" s="8">
+        <v>203168</v>
+      </c>
+      <c r="J11" s="8">
+        <v>1623945</v>
+      </c>
+      <c r="K11" s="8">
+        <v>573296</v>
+      </c>
+      <c r="L11" s="8">
+        <v>4181371</v>
+      </c>
+      <c r="M11" s="8">
+        <v>1543278</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" s="8">
+        <v>2638093</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="7">
+        <v>2009</v>
+      </c>
+      <c r="B12" s="8">
+        <v>107</v>
+      </c>
+      <c r="C12" s="8">
+        <v>27</v>
+      </c>
+      <c r="D12" s="8">
+        <v>30</v>
+      </c>
+      <c r="E12" s="8">
+        <v>20</v>
+      </c>
+      <c r="F12" s="8">
+        <v>30</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3711228</v>
+      </c>
+      <c r="H12" s="8">
+        <v>1360870</v>
+      </c>
+      <c r="I12" s="8">
+        <v>353966</v>
+      </c>
+      <c r="J12" s="8">
+        <v>1143846</v>
+      </c>
+      <c r="K12" s="8">
+        <v>852546</v>
+      </c>
+      <c r="L12" s="8">
+        <v>3556637</v>
+      </c>
+      <c r="M12" s="8">
+        <v>1984971</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O12" s="8">
+        <v>1571666</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="7">
+        <v>2010</v>
+      </c>
+      <c r="B13" s="8">
+        <v>108</v>
+      </c>
+      <c r="C13" s="8">
+        <v>25</v>
+      </c>
+      <c r="D13" s="8">
+        <v>31</v>
+      </c>
+      <c r="E13" s="8">
+        <v>23</v>
+      </c>
+      <c r="F13" s="8">
+        <v>29</v>
+      </c>
+      <c r="G13" s="8">
+        <v>3318834</v>
+      </c>
+      <c r="H13" s="8">
+        <v>1435026</v>
+      </c>
+      <c r="I13" s="8">
+        <v>354521</v>
+      </c>
+      <c r="J13" s="8">
+        <v>950577</v>
+      </c>
+      <c r="K13" s="8">
+        <v>578710</v>
+      </c>
+      <c r="L13" s="8">
+        <v>3331308</v>
+      </c>
+      <c r="M13" s="8">
+        <v>1995094</v>
+      </c>
+      <c r="N13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O13" s="8">
+        <v>1336214</v>
+      </c>
+      <c r="P13" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="7">
+        <v>2011</v>
+      </c>
+      <c r="B14" s="8">
+        <v>115</v>
+      </c>
+      <c r="C14" s="8">
+        <v>28</v>
+      </c>
+      <c r="D14" s="8">
+        <v>32</v>
+      </c>
+      <c r="E14" s="8">
+        <v>21</v>
+      </c>
+      <c r="F14" s="8">
+        <v>34</v>
+      </c>
+      <c r="G14" s="8">
+        <v>3913754</v>
+      </c>
+      <c r="H14" s="8">
+        <v>1815962</v>
+      </c>
+      <c r="I14" s="8">
+        <v>357120</v>
+      </c>
+      <c r="J14" s="8">
+        <v>1095140</v>
+      </c>
+      <c r="K14" s="8">
+        <v>645532</v>
+      </c>
+      <c r="L14" s="8">
+        <v>3831781</v>
+      </c>
+      <c r="M14" s="8">
+        <v>2507470</v>
+      </c>
+      <c r="N14" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O14" s="8">
+        <v>1324311</v>
+      </c>
+      <c r="P14" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="7">
+        <v>2012</v>
+      </c>
+      <c r="B15" s="8">
+        <v>113</v>
+      </c>
+      <c r="C15" s="8">
+        <v>30</v>
+      </c>
+      <c r="D15" s="8">
+        <v>32</v>
+      </c>
+      <c r="E15" s="8">
+        <v>22</v>
+      </c>
+      <c r="F15" s="8">
+        <v>29</v>
+      </c>
+      <c r="G15" s="8">
+        <v>5176208</v>
+      </c>
+      <c r="H15" s="8">
+        <v>2263845</v>
+      </c>
+      <c r="I15" s="8">
+        <v>392938</v>
+      </c>
+      <c r="J15" s="8">
+        <v>1406228</v>
+      </c>
+      <c r="K15" s="8">
+        <v>1113197</v>
+      </c>
+      <c r="L15" s="8">
+        <v>4546532</v>
+      </c>
+      <c r="M15" s="8">
+        <v>3188438</v>
+      </c>
+      <c r="N15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O15" s="8">
+        <v>1358094</v>
+      </c>
+      <c r="P15" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="7">
+        <v>2013</v>
+      </c>
+      <c r="B16" s="8">
+        <v>106</v>
+      </c>
+      <c r="C16" s="8">
+        <v>29</v>
+      </c>
+      <c r="D16" s="8">
+        <v>32</v>
+      </c>
+      <c r="E16" s="8">
+        <v>14</v>
+      </c>
+      <c r="F16" s="8">
+        <v>31</v>
+      </c>
+      <c r="G16" s="8">
+        <v>4606085</v>
+      </c>
+      <c r="H16" s="8">
+        <v>1972049</v>
+      </c>
+      <c r="I16" s="8">
+        <v>362609</v>
+      </c>
+      <c r="J16" s="8">
+        <v>1306830</v>
+      </c>
+      <c r="K16" s="8">
+        <v>964597</v>
+      </c>
+      <c r="L16" s="8">
+        <v>4199574</v>
+      </c>
+      <c r="M16" s="8">
+        <v>2933169</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O16" s="8">
+        <v>1266405</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="7">
+        <v>2014</v>
+      </c>
+      <c r="B17" s="8">
+        <v>106</v>
+      </c>
+      <c r="C17" s="8">
+        <v>29</v>
+      </c>
+      <c r="D17" s="8">
+        <v>33</v>
+      </c>
+      <c r="E17" s="8">
+        <v>15</v>
+      </c>
+      <c r="F17" s="8">
+        <v>29</v>
+      </c>
+      <c r="G17" s="8">
+        <v>3521303</v>
+      </c>
+      <c r="H17" s="8">
+        <v>1865067</v>
+      </c>
+      <c r="I17" s="8">
+        <v>430789</v>
+      </c>
+      <c r="J17" s="8">
+        <v>760585</v>
+      </c>
+      <c r="K17" s="8">
+        <v>464862</v>
+      </c>
+      <c r="L17" s="8">
+        <v>3350925</v>
+      </c>
+      <c r="M17" s="8">
+        <v>2642080</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O17" s="8">
+        <v>708845</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="7">
+        <v>2015</v>
+      </c>
+      <c r="B18" s="8">
+        <v>110</v>
+      </c>
+      <c r="C18" s="8">
+        <v>29</v>
+      </c>
+      <c r="D18" s="8">
+        <v>32</v>
+      </c>
+      <c r="E18" s="8">
+        <v>20</v>
+      </c>
+      <c r="F18" s="8">
+        <v>29</v>
+      </c>
+      <c r="G18" s="8">
+        <v>4076539</v>
+      </c>
+      <c r="H18" s="8">
+        <v>2128307</v>
+      </c>
+      <c r="I18" s="8">
+        <v>357025</v>
+      </c>
+      <c r="J18" s="8">
+        <v>1004438</v>
+      </c>
+      <c r="K18" s="8">
+        <v>586769</v>
+      </c>
+      <c r="L18" s="8">
+        <v>3784613</v>
+      </c>
+      <c r="M18" s="8">
+        <v>2667129</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O18" s="8">
+        <v>1117484</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="7">
+        <v>2016</v>
+      </c>
+      <c r="B19" s="8">
+        <v>109</v>
+      </c>
+      <c r="C19" s="8">
+        <v>29</v>
+      </c>
+      <c r="D19" s="8">
+        <v>29</v>
+      </c>
+      <c r="E19" s="8">
+        <v>21</v>
+      </c>
+      <c r="F19" s="8">
+        <v>30</v>
+      </c>
+      <c r="G19" s="8">
+        <v>3983460</v>
+      </c>
+      <c r="H19" s="8">
+        <v>1776852</v>
+      </c>
+      <c r="I19" s="8">
+        <v>419461</v>
+      </c>
+      <c r="J19" s="8">
+        <v>1039630</v>
+      </c>
+      <c r="K19" s="8">
+        <v>747517</v>
+      </c>
+      <c r="L19" s="8">
+        <v>3466875</v>
+      </c>
+      <c r="M19" s="8">
+        <v>2396570</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O19" s="8">
+        <v>1070305</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="7">
+        <v>2017</v>
+      </c>
+      <c r="B20" s="8">
+        <v>102</v>
+      </c>
+      <c r="C20" s="8">
+        <v>25</v>
+      </c>
+      <c r="D20" s="8">
+        <v>30</v>
+      </c>
+      <c r="E20" s="8">
+        <v>20</v>
+      </c>
+      <c r="F20" s="8">
+        <v>27</v>
+      </c>
+      <c r="G20" s="8">
+        <v>4266277</v>
+      </c>
+      <c r="H20" s="8">
+        <v>1385540</v>
+      </c>
+      <c r="I20" s="8">
+        <v>416269</v>
+      </c>
+      <c r="J20" s="8">
+        <v>1602118</v>
+      </c>
+      <c r="K20" s="8">
+        <v>862350</v>
+      </c>
+      <c r="L20" s="8">
+        <v>3366992</v>
+      </c>
+      <c r="M20" s="8">
+        <v>1714687</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O20" s="8">
+        <v>1652305</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="7">
+        <v>2018</v>
+      </c>
+      <c r="B21" s="8">
+        <v>106</v>
+      </c>
+      <c r="C21" s="8">
+        <v>25</v>
+      </c>
+      <c r="D21" s="8">
+        <v>33</v>
+      </c>
+      <c r="E21" s="8">
+        <v>19</v>
+      </c>
+      <c r="F21" s="8">
+        <v>29</v>
+      </c>
+      <c r="G21" s="8">
+        <v>3678782</v>
+      </c>
+      <c r="H21" s="8">
+        <v>1377643</v>
+      </c>
+      <c r="I21" s="8">
+        <v>484436</v>
+      </c>
+      <c r="J21" s="8">
+        <v>920381</v>
+      </c>
+      <c r="K21" s="8">
+        <v>896322</v>
+      </c>
+      <c r="L21" s="8">
+        <v>3051028</v>
+      </c>
+      <c r="M21" s="8">
+        <v>1815231</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" s="8">
+        <v>1235797</v>
+      </c>
+      <c r="P21" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2570,8 +2719,8 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:P20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:P21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
@@ -2583,7 +2732,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -2598,7 +2747,7 @@
     </row>
     <row r="4" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -2697,46 +2846,46 @@
         <v>2008</v>
       </c>
       <c r="B11" s="8">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="C11" s="8">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D11" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="8">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F11" s="8">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G11" s="8">
-        <v>3443894</v>
+        <v>3943891</v>
       </c>
       <c r="H11" s="8">
-        <v>1043485</v>
+        <v>1909389</v>
       </c>
       <c r="I11" s="8">
-        <v>203168</v>
+        <v>417292</v>
       </c>
       <c r="J11" s="8">
-        <v>1623945</v>
+        <v>938757</v>
       </c>
       <c r="K11" s="8">
-        <v>573296</v>
+        <v>678453</v>
       </c>
       <c r="L11" s="8">
-        <v>4181371</v>
+        <v>4124342</v>
       </c>
       <c r="M11" s="8">
-        <v>1543278</v>
+        <v>2853327</v>
       </c>
       <c r="N11" s="9" t="s">
         <v>29</v>
       </c>
       <c r="O11" s="8">
-        <v>2638093</v>
+        <v>1271015</v>
       </c>
       <c r="P11" s="9" t="s">
         <v>29</v>
@@ -2747,46 +2896,46 @@
         <v>2009</v>
       </c>
       <c r="B12" s="8">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="8">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D12" s="8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12" s="8">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F12" s="8">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G12" s="8">
-        <v>3711228</v>
+        <v>5539764</v>
       </c>
       <c r="H12" s="8">
-        <v>1360870</v>
+        <v>2128477</v>
       </c>
       <c r="I12" s="8">
-        <v>353966</v>
+        <v>363247</v>
       </c>
       <c r="J12" s="8">
-        <v>1143846</v>
+        <v>2216943</v>
       </c>
       <c r="K12" s="8">
-        <v>852546</v>
+        <v>831097</v>
       </c>
       <c r="L12" s="8">
-        <v>3556637</v>
+        <v>5580259</v>
       </c>
       <c r="M12" s="8">
-        <v>1984971</v>
+        <v>2929807</v>
       </c>
       <c r="N12" s="9" t="s">
         <v>29</v>
       </c>
       <c r="O12" s="8">
-        <v>1571666</v>
+        <v>2650452</v>
       </c>
       <c r="P12" s="9" t="s">
         <v>29</v>
@@ -2797,7 +2946,7 @@
         <v>2010</v>
       </c>
       <c r="B13" s="8">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C13" s="8">
         <v>25</v>
@@ -2806,37 +2955,37 @@
         <v>31</v>
       </c>
       <c r="E13" s="8">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F13" s="8">
         <v>29</v>
       </c>
       <c r="G13" s="8">
-        <v>3318834</v>
+        <v>6600861</v>
       </c>
       <c r="H13" s="8">
-        <v>1435026</v>
+        <v>2580388</v>
       </c>
       <c r="I13" s="8">
-        <v>354521</v>
+        <v>511766</v>
       </c>
       <c r="J13" s="8">
-        <v>950577</v>
+        <v>2506486</v>
       </c>
       <c r="K13" s="8">
-        <v>578710</v>
+        <v>1002221</v>
       </c>
       <c r="L13" s="8">
-        <v>3331308</v>
+        <v>6289239</v>
       </c>
       <c r="M13" s="8">
-        <v>1995094</v>
+        <v>3469382</v>
       </c>
       <c r="N13" s="9" t="s">
         <v>29</v>
       </c>
       <c r="O13" s="8">
-        <v>1336214</v>
+        <v>2819857</v>
       </c>
       <c r="P13" s="9" t="s">
         <v>29</v>
@@ -2847,46 +2996,46 @@
         <v>2011</v>
       </c>
       <c r="B14" s="8">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C14" s="8">
         <v>28</v>
       </c>
       <c r="D14" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E14" s="8">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F14" s="8">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="G14" s="8">
-        <v>3913754</v>
+        <v>6031190</v>
       </c>
       <c r="H14" s="8">
-        <v>1815962</v>
+        <v>2145180</v>
       </c>
       <c r="I14" s="8">
-        <v>357120</v>
+        <v>535430</v>
       </c>
       <c r="J14" s="8">
-        <v>1095140</v>
+        <v>2481579</v>
       </c>
       <c r="K14" s="8">
-        <v>645532</v>
+        <v>869001</v>
       </c>
       <c r="L14" s="8">
-        <v>3831781</v>
+        <v>5646116</v>
       </c>
       <c r="M14" s="8">
-        <v>2507470</v>
+        <v>3024016</v>
       </c>
       <c r="N14" s="9" t="s">
         <v>29</v>
       </c>
       <c r="O14" s="8">
-        <v>1324311</v>
+        <v>2622100</v>
       </c>
       <c r="P14" s="9" t="s">
         <v>29</v>
@@ -2897,46 +3046,46 @@
         <v>2012</v>
       </c>
       <c r="B15" s="8">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C15" s="8">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D15" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E15" s="8">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F15" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G15" s="8">
-        <v>5176208</v>
+        <v>5277020</v>
       </c>
       <c r="H15" s="8">
-        <v>2263845</v>
+        <v>1997692</v>
       </c>
       <c r="I15" s="8">
-        <v>392938</v>
+        <v>527759</v>
       </c>
       <c r="J15" s="8">
-        <v>1406228</v>
+        <v>2098194</v>
       </c>
       <c r="K15" s="8">
-        <v>1113197</v>
+        <v>653375</v>
       </c>
       <c r="L15" s="8">
-        <v>4546532</v>
+        <v>4963511</v>
       </c>
       <c r="M15" s="8">
-        <v>3188438</v>
+        <v>2739109</v>
       </c>
       <c r="N15" s="9" t="s">
         <v>29</v>
       </c>
       <c r="O15" s="8">
-        <v>1358094</v>
+        <v>2224402</v>
       </c>
       <c r="P15" s="9" t="s">
         <v>29</v>
@@ -2947,46 +3096,46 @@
         <v>2013</v>
       </c>
       <c r="B16" s="8">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C16" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D16" s="8">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E16" s="8">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F16" s="8">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G16" s="8">
-        <v>4606085</v>
+        <v>6451551</v>
       </c>
       <c r="H16" s="8">
-        <v>1972049</v>
+        <v>2499811</v>
       </c>
       <c r="I16" s="8">
-        <v>362609</v>
+        <v>541902</v>
       </c>
       <c r="J16" s="8">
-        <v>1306830</v>
+        <v>2254465</v>
       </c>
       <c r="K16" s="8">
-        <v>964597</v>
+        <v>1155373</v>
       </c>
       <c r="L16" s="8">
-        <v>4199574</v>
+        <v>5637556</v>
       </c>
       <c r="M16" s="8">
-        <v>2933169</v>
+        <v>3484411</v>
       </c>
       <c r="N16" s="9" t="s">
         <v>29</v>
       </c>
       <c r="O16" s="8">
-        <v>1266405</v>
+        <v>2153145</v>
       </c>
       <c r="P16" s="9" t="s">
         <v>29</v>
@@ -3000,43 +3149,43 @@
         <v>106</v>
       </c>
       <c r="C17" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D17" s="8">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E17" s="8">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F17" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G17" s="8">
-        <v>3521303</v>
+        <v>7268512</v>
       </c>
       <c r="H17" s="8">
-        <v>1865067</v>
+        <v>2792521</v>
       </c>
       <c r="I17" s="8">
-        <v>430789</v>
+        <v>471165</v>
       </c>
       <c r="J17" s="8">
-        <v>760585</v>
+        <v>2344397</v>
       </c>
       <c r="K17" s="8">
-        <v>464862</v>
+        <v>1660429</v>
       </c>
       <c r="L17" s="8">
-        <v>3350925</v>
+        <v>6657645</v>
       </c>
       <c r="M17" s="8">
-        <v>2642080</v>
+        <v>4533524</v>
       </c>
       <c r="N17" s="9" t="s">
         <v>29</v>
       </c>
       <c r="O17" s="8">
-        <v>708845</v>
+        <v>2124121</v>
       </c>
       <c r="P17" s="9" t="s">
         <v>29</v>
@@ -3047,46 +3196,46 @@
         <v>2015</v>
       </c>
       <c r="B18" s="8">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C18" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" s="8">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E18" s="8">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F18" s="8">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G18" s="8">
-        <v>4076539</v>
+        <v>6496121</v>
       </c>
       <c r="H18" s="8">
-        <v>2128307</v>
+        <v>2501008</v>
       </c>
       <c r="I18" s="8">
-        <v>357025</v>
+        <v>665223</v>
       </c>
       <c r="J18" s="8">
-        <v>1004438</v>
+        <v>2192560</v>
       </c>
       <c r="K18" s="8">
-        <v>586769</v>
+        <v>1137330</v>
       </c>
       <c r="L18" s="8">
-        <v>3784613</v>
+        <v>5821763</v>
       </c>
       <c r="M18" s="8">
-        <v>2667129</v>
+        <v>3705164</v>
       </c>
       <c r="N18" s="9" t="s">
         <v>29</v>
       </c>
       <c r="O18" s="8">
-        <v>1117484</v>
+        <v>2116599</v>
       </c>
       <c r="P18" s="9" t="s">
         <v>29</v>
@@ -3097,46 +3246,46 @@
         <v>2016</v>
       </c>
       <c r="B19" s="8">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C19" s="8">
         <v>29</v>
       </c>
       <c r="D19" s="8">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E19" s="8">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="F19" s="8">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G19" s="8">
-        <v>3983460</v>
+        <v>6862720</v>
       </c>
       <c r="H19" s="8">
-        <v>1776852</v>
+        <v>2628874</v>
       </c>
       <c r="I19" s="8">
-        <v>419461</v>
+        <v>471349</v>
       </c>
       <c r="J19" s="8">
-        <v>1039630</v>
+        <v>2299377</v>
       </c>
       <c r="K19" s="8">
-        <v>747517</v>
+        <v>1463120</v>
       </c>
       <c r="L19" s="8">
-        <v>3466875</v>
+        <v>5692680</v>
       </c>
       <c r="M19" s="8">
-        <v>2396570</v>
+        <v>3424393</v>
       </c>
       <c r="N19" s="9" t="s">
         <v>29</v>
       </c>
       <c r="O19" s="8">
-        <v>1070305</v>
+        <v>2268287</v>
       </c>
       <c r="P19" s="9" t="s">
         <v>29</v>
@@ -3147,48 +3296,98 @@
         <v>2017</v>
       </c>
       <c r="B20" s="8">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C20" s="8">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" s="8">
         <v>30</v>
       </c>
       <c r="E20" s="8">
+        <v>19</v>
+      </c>
+      <c r="F20" s="8">
+        <v>31</v>
+      </c>
+      <c r="G20" s="8">
+        <v>7142467</v>
+      </c>
+      <c r="H20" s="8">
+        <v>2744443</v>
+      </c>
+      <c r="I20" s="8">
+        <v>413530</v>
+      </c>
+      <c r="J20" s="8">
+        <v>2215230</v>
+      </c>
+      <c r="K20" s="8">
+        <v>1769264</v>
+      </c>
+      <c r="L20" s="8">
+        <v>5871161</v>
+      </c>
+      <c r="M20" s="8">
+        <v>3618540</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O20" s="8">
+        <v>2252621</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="7">
+        <v>2018</v>
+      </c>
+      <c r="B21" s="8">
+        <v>105</v>
+      </c>
+      <c r="C21" s="8">
+        <v>28</v>
+      </c>
+      <c r="D21" s="8">
+        <v>28</v>
+      </c>
+      <c r="E21" s="8">
         <v>20</v>
       </c>
-      <c r="F20" s="8">
-        <v>27</v>
-      </c>
-      <c r="G20" s="8">
-        <v>4266277</v>
-      </c>
-      <c r="H20" s="8">
-        <v>1385540</v>
-      </c>
-      <c r="I20" s="8">
-        <v>416269</v>
-      </c>
-      <c r="J20" s="8">
-        <v>1602118</v>
-      </c>
-      <c r="K20" s="8">
-        <v>862350</v>
-      </c>
-      <c r="L20" s="8">
-        <v>3366992</v>
-      </c>
-      <c r="M20" s="8">
-        <v>1714687</v>
-      </c>
-      <c r="N20" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="O20" s="8">
-        <v>1652305</v>
-      </c>
-      <c r="P20" s="9" t="s">
+      <c r="F21" s="8">
+        <v>29</v>
+      </c>
+      <c r="G21" s="8">
+        <v>7674862</v>
+      </c>
+      <c r="H21" s="8">
+        <v>2332400</v>
+      </c>
+      <c r="I21" s="8">
+        <v>441498</v>
+      </c>
+      <c r="J21" s="8">
+        <v>3168847</v>
+      </c>
+      <c r="K21" s="8">
+        <v>1732117</v>
+      </c>
+      <c r="L21" s="8">
+        <v>6108147</v>
+      </c>
+      <c r="M21" s="8">
+        <v>2951488</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="O21" s="8">
+        <v>3156659</v>
+      </c>
+      <c r="P21" s="9" t="s">
         <v>29</v>
       </c>
     </row>
